--- a/biology/Botanique/Picris/Picris.xlsx
+++ b/biology/Botanique/Picris/Picris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Picris (les picrides) est un genre de plante à fleurs de la famille des Astéracées (anciennement les Composées), de la sous-famille des Cichorioideae (syn. Lactucoidea) et de la tribu des Cichorieae (syn. Lactuceae).
 Ce sont des plantes herbacées.
@@ -512,9 +524,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Picris vient du grec pikros, « amer », en référence à l'amertume de ses feuilles comestibles[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picris vient du grec pikros, « amer », en référence à l'amertume de ses feuilles comestibles.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (13 mai 2020)[1] (attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (13 mai 2020) (attention liste brute contenant possiblement des synonymes) :
 Picris abyssinica Sch. Bip.
 Picris aculeata Vahl
 Picris afghanica Rech. f. &amp; Köie
@@ -650,9 +666,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes feuilles en rosette de plusieurs espèces sont comestibles crues, mais elles deviennent rapidement coriaces et se chargent d'amertume, d'où leur consommation plutôt blanchies ou cuites[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes feuilles en rosette de plusieurs espèces sont comestibles crues, mais elles deviennent rapidement coriaces et se chargent d'amertume, d'où leur consommation plutôt blanchies ou cuites.
 </t>
         </is>
       </c>
